--- a/public/Bharat Petroleum Corporation Ltd_Governance.xlsx
+++ b/public/Bharat Petroleum Corporation Ltd_Governance.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jithesh\Downloads\Bharat Petroleum Corporation Ltd\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6750"/>
   </bookViews>
@@ -3010,7 +3015,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
@@ -3745,16 +3750,6 @@
     <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3783,6 +3778,16 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4806,7 +4811,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4817,7 +4822,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
@@ -4833,48 +4838,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="110" t="s">
         <v>713</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="110" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="113" t="s">
         <v>749</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="112" t="s">
         <v>978</v>
       </c>
-      <c r="C2" s="105">
+      <c r="C2" s="112">
         <v>33873</v>
       </c>
-      <c r="D2" s="105">
+      <c r="D2" s="112">
         <v>19209</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="112" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="112" t="s">
         <v>769</v>
       </c>
       <c r="G2" s="20" t="s">
@@ -4892,7 +4897,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[1]NIC industry'!#REF!</xm:f>
+            <xm:f>'C:\Users\user\Downloads\[Bharat Petroleum Corporation Ltd._Governance_11.03.2021.xlsx]NIC industry'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
@@ -7651,11 +7656,11 @@
       </c>
       <c r="AF2" s="66"/>
       <c r="AG2" s="67"/>
-      <c r="AJ2" s="107" t="s">
+      <c r="AJ2" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="AK2" s="108"/>
-      <c r="AL2" s="109"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="105"/>
     </row>
     <row r="3" spans="1:38" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A3" s="54" t="s">
@@ -7894,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="AG5" s="47">
-        <f>COUNTIFS(Z:Z, "Error accepted",W:W,AD5)/$AE$16</f>
+        <f>COUNTIFS(Z:Z, "Error accepted", W:W,AD5)/$AE$16</f>
         <v>0</v>
       </c>
       <c r="AJ5" s="8" t="s">
@@ -7976,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="AG6" s="47">
-        <f t="shared" ref="AG6:AG15" si="0">COUNTIFS(Z:Z, "Error accepted",W:W,AD6)/$AE$16</f>
+        <f t="shared" ref="AG6:AG15" si="0">COUNTIFS(Z:Z, "Error accepted", W:W,AD6)/$AE$16</f>
         <v>0</v>
       </c>
       <c r="AJ6" s="8" t="s">
@@ -21862,6 +21867,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
+  <autoFilter ref="A1:AL211"/>
   <mergeCells count="1">
     <mergeCell ref="AJ2:AL2"/>
   </mergeCells>
@@ -21900,8 +21906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP62"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="AL28" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="AQ35" sqref="AQ35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
@@ -22117,11 +22123,11 @@
       <c r="BK1" s="51"/>
       <c r="BL1" s="51"/>
       <c r="BM1" s="3"/>
-      <c r="BN1" s="110" t="s">
+      <c r="BN1" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="BO1" s="111"/>
-      <c r="BP1" s="112"/>
+      <c r="BO1" s="107"/>
+      <c r="BP1" s="108"/>
     </row>
     <row r="2" spans="1:68" s="20" customFormat="1">
       <c r="A2" s="19" t="s">
@@ -22595,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="47" t="e">
-        <f>COUNTIFS(BC:BC, "Error accepted",AZ:AZ,BG5)/$BH$16</f>
+        <f>COUNTIFS(BC:BC, "Error accepted", AZ:AZ,BG5)/$BH$16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BK5" s="38"/>
@@ -22724,7 +22730,7 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="47" t="e">
-        <f t="shared" ref="BJ6:BJ15" si="1">COUNTIFS(BC:BC, "Error accepted",AZ:AZ,BG6)/$BH$16</f>
+        <f t="shared" ref="BJ6:BJ15" si="1">COUNTIFS(BC:BC, "Error accepted", AZ:AZ,BG6)/$BH$16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BK6" s="38"/>
@@ -23023,7 +23029,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="47" t="e">
-        <f>COUNTIFS(BC:BC, "Error accepted",AZ:AZ,BG9)/$BH$16</f>
+        <f>COUNTIFS(BC:BC, "Error accepted", AZ:AZ,BG9)/$BH$16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BK9" s="38"/>
@@ -28389,6 +28395,10 @@
       <c r="BP62"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BP62">
+    <filterColumn colId="65" showButton="0"/>
+    <filterColumn colId="66" showButton="0"/>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="BN1:BP1"/>
   </mergeCells>
@@ -28559,7 +28569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF22"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView topLeftCell="AH1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
@@ -28747,11 +28757,11 @@
       </c>
       <c r="BA1" s="36"/>
       <c r="BB1" s="36"/>
-      <c r="BC1" s="113" t="s">
+      <c r="BC1" s="109" t="s">
         <v>745</v>
       </c>
-      <c r="BD1" s="113"/>
-      <c r="BE1" s="113"/>
+      <c r="BD1" s="109"/>
+      <c r="BE1" s="109"/>
     </row>
     <row r="2" spans="1:58">
       <c r="A2" s="19" t="s">
@@ -29161,7 +29171,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="47" t="e">
-        <f>COUNTIFS(AS:AS, "Error accepted",AP:AP,AW5)/$AX$16</f>
+        <f>COUNTIFS(AS:AS, "Error accepted", AP:AP,AW5)/$AX$16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BA5" s="20"/>
@@ -29279,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="47" t="e">
-        <f t="shared" ref="AZ6:AZ15" si="0">COUNTIFS(AS:AS, "Error accepted",AP:AP,AW6)/$AX$16</f>
+        <f t="shared" ref="AZ6:AZ15" si="0">COUNTIFS(AS:AS, "Error accepted", AP:AP,AW6)/$AX$16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BA6" s="20"/>
@@ -31020,6 +31030,7 @@
       <c r="BE22" s="20"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AZ22"/>
   <mergeCells count="1">
     <mergeCell ref="BC1:BE1"/>
   </mergeCells>
